--- a/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7567" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7567" uniqueCount="853">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3722,9 +3722,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3763,9 +3760,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.86.10</t>
-  </si>
-  <si>
     <t>"Switched PDU"</t>
   </si>
   <si>
@@ -3818,6 +3812,22 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Switched PDU"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.86.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4364,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4436,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4455,13 +4465,13 @@
         <v>800</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4471,13 +4481,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4496,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4527,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4552,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="5"/>
@@ -4577,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>607</v>
@@ -4587,22 +4597,22 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>837</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4616,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="5"/>
@@ -4641,7 +4651,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
@@ -4668,7 +4678,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>19</v>
@@ -4683,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4701,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>19</v>
@@ -4730,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>19</v>
@@ -4759,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -4782,7 +4792,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>605</v>
@@ -4794,7 +4804,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="5"/>
@@ -4813,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>605</v>
@@ -4842,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5"/>
@@ -4865,7 +4875,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>786</v>
@@ -4892,7 +4902,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>607</v>
@@ -4902,22 +4912,22 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>813</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="2"/>
@@ -4933,7 +4943,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -4956,7 +4966,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>19</v>
@@ -4985,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>19</v>
@@ -5000,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5014,7 +5024,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>19</v>
@@ -5039,7 +5049,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>19</v>
@@ -5064,7 +5074,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>605</v>
@@ -5076,7 +5086,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5091,7 +5101,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>605</v>
@@ -5116,7 +5126,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5135,7 +5145,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>786</v>
@@ -5158,7 +5168,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>19</v>
@@ -5183,7 +5193,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>19</v>
@@ -5208,10 +5218,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>608</v>
@@ -5220,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5235,10 +5245,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>213</v>
@@ -5260,7 +5270,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>615</v>
@@ -5285,10 +5295,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7567" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7567" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3760,9 +3760,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>"Switched PDU"</t>
-  </si>
-  <si>
     <t>"Description for PDU"</t>
   </si>
   <si>
@@ -3785,9 +3782,6 @@
   </si>
   <si>
     <t>;Add one device which is not muti-module device.</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
   </si>
   <si>
     <t>"Description for GXT"</t>
@@ -3814,20 +3808,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
+    <t>$SwitchedPDU_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
+    <t>$SPDU_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Switched PDU"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.86.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4374,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4387,7 +4379,8 @@
     <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4465,7 +4458,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4506,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4600,19 +4593,19 @@
         <v>831</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4626,7 +4619,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="5"/>
@@ -4693,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4769,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="5"/>
@@ -4804,7 +4797,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="5"/>
@@ -4852,7 +4845,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5"/>
@@ -4921,13 +4914,13 @@
         <v>850</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>813</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="2"/>
@@ -4943,7 +4936,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5010,7 +5003,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5086,7 +5079,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5126,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5218,10 +5211,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>608</v>
@@ -5230,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5245,10 +5238,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>213</v>
@@ -5270,7 +5263,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>615</v>
@@ -5295,10 +5288,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST763_ConfigureTrendingDataPointsGridShowsWhichOne.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7567" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7570" uniqueCount="854">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3808,18 +3808,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SwitchedPDU_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SPDU_0$</t>
+    <t>$SNMP_SwitchedPDU_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>$SNMP_SPDU_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4364,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4549,7 +4563,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4574,7 +4588,7 @@
         <v>806</v>
       </c>
       <c r="B7" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4593,10 +4607,10 @@
         <v>831</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>832</v>
@@ -4612,9 +4626,9 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>847</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4635,26 +4649,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>808</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="5"/>
@@ -4665,8 +4675,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4677,17 +4691,13 @@
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -4696,10 +4706,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4710,13 +4718,17 @@
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>849</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -4726,7 +4738,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4739,7 +4751,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>2</v>
@@ -4753,20 +4765,26 @@
       <c r="N12" s="7"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4776,30 +4794,22 @@
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="I14" s="11"/>
+      <c r="D14" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -4809,7 +4819,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4822,12 +4832,14 @@
         <v>605</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>606</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>837</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -4836,22 +4848,28 @@
       <c r="N15" s="7"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4859,26 +4877,22 @@
       <c r="N16" s="7"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>816</v>
-      </c>
+    <row r="17" spans="1:15" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
+      <c r="D17" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -4889,89 +4903,87 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>613</v>
+        <v>821</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>834</v>
-      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="7"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>818</v>
-      </c>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>834</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>818</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>808</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="D20" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -4981,7 +4993,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -4994,17 +5006,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -5013,6 +5021,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5023,13 +5035,17 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -5048,7 +5064,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>2</v>
@@ -5070,18 +5086,16 @@
         <v>822</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>605</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>606</v>
+        <v>126</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="I24" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5100,12 +5114,14 @@
         <v>605</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>100</v>
+        <v>606</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>837</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5114,18 +5130,24 @@
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5133,19 +5155,15 @@
       <c r="N26" s="7"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15">
       <c r="C27" s="5">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
+      <c r="D27" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="11"/>
       <c r="I27" s="5"/>
@@ -5161,19 +5179,17 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5192,7 +5208,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>2</v>
@@ -5211,29 +5227,27 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>843</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="17"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
@@ -5244,12 +5258,14 @@
         <v>843</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>213</v>
+        <v>608</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>844</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5258,23 +5274,23 @@
       <c r="N31" s="17"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="14.25">
       <c r="C32" s="5">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>615</v>
+      <c r="E32" s="11" t="s">
+        <v>843</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -5290,32 +5306,42 @@
       <c r="D33" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>843</v>
+      <c r="E33" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="7"/>
+      <c r="N33" s="17"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="16"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="5">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -5344,7 +5370,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5356,9 +5382,9 @@
     <row r="37" spans="3:15">
       <c r="C37" s="16"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5371,10 +5397,10 @@
     <row r="38" spans="3:15">
       <c r="C38" s="16"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5387,9 +5413,9 @@
       <c r="C39" s="16"/>
       <c r="D39" s="8"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5402,9 +5428,9 @@
       <c r="C40" s="16"/>
       <c r="D40" s="8"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5417,9 +5443,9 @@
       <c r="C41" s="16"/>
       <c r="D41" s="8"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5428,9 +5454,22 @@
       <c r="N41" s="7"/>
       <c r="O41" s="2"/>
     </row>
+    <row r="42" spans="3:15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N41">
+  <conditionalFormatting sqref="N2:N42">
     <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5438,7 +5477,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30:N32">
+  <conditionalFormatting sqref="N31:N33">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5447,16 +5486,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D37 D28:D29 D3:D4 D7 D17:D18 D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D37:D38 D29:D30 D3:D4 D7 D18:D19 D35">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29 G31:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G42 G2:G30">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
